--- a/medicine/Pharmacie/Gaspard_Alphonse_Dupasquier/Gaspard_Alphonse_Dupasquier.xlsx
+++ b/medicine/Pharmacie/Gaspard_Alphonse_Dupasquier/Gaspard_Alphonse_Dupasquier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaspard Alphonse Dupasquier (Chessy (Rhône), 27 août 1793 - Lyon, 13 avril 1848), est un médecin, pharmacien et chimiste français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pharmacien à Lyon (1811) puis à Paris (1815), il fait des études de médecine à l'Hôtel-Dieu de Lyon de 1815 à 1817 puis à Paris. Il passe à Paris son diplôme de pharmacie et sa thèse de médecine en 1821[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pharmacien à Lyon (1811) puis à Paris (1815), il fait des études de médecine à l'Hôtel-Dieu de Lyon de 1815 à 1817 puis à Paris. Il passe à Paris son diplôme de pharmacie et sa thèse de médecine en 1821.
 Médecin de l'Hôtel-Dieu de Lyon (1829), il est le fondateur du journal clinique des hôpitaux de Lyon et de la Société linnéenne dont il fut aussi secrétaire. Il enseigne la chimie à l'école de La Martinière (1837-1841) puis à l'École préparatoire de médecine (1841-1847) et devient membre correspondant de l'Académie de médecine en 1847.
 Il est l'inventeur en 1841 du sulfhydromètre, un appareil permettant de mesurer le soufre contenu dans l'eau.
 </t>
@@ -544,7 +558,9 @@
           <t>Récompenses et distinctions[2]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Académie des sciences : Membre correspondant de l'Académie des sciences (1847-1848)
 Membre de l' Académie des sciences, belles-lettres et arts de Lyon (1828-1848)
@@ -559,7 +575,7 @@
 Membre correspondant du département du Rhône de la Société linnéenne de Paris (1822-1848)
 Membre de la Société nationale de médecine et des sciences médicales de Lyon
 Secrétaire général 1831
-Il est l'une des quatre personnalités représentées sur le Monument aux Grands Hommes de la Martinière à Lyon[3].</t>
+Il est l'une des quatre personnalités représentées sur le Monument aux Grands Hommes de la Martinière à Lyon.</t>
         </is>
       </c>
     </row>
@@ -587,7 +603,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>On lui doit de nombreux écrits sur la chimie, l'hydrologie, la toxicologie, la médecine mais aussi sur la littérature et les arts tels :
 De l'imagination, et de son influence sur l'homme dans l'état de santé ou de maladie, Thèse de médecine, 1821
